--- a/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003768829381126</v>
+        <v>0.9993960869402535</v>
       </c>
       <c r="D2">
-        <v>1.024682620177411</v>
+        <v>1.021693496542823</v>
       </c>
       <c r="E2">
-        <v>1.009300725637236</v>
+        <v>1.005871098334296</v>
       </c>
       <c r="F2">
-        <v>1.02872886417839</v>
+        <v>1.025686975542922</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045585667466959</v>
+        <v>1.044593954649923</v>
       </c>
       <c r="J2">
-        <v>1.025837396793155</v>
+        <v>1.021594875958779</v>
       </c>
       <c r="K2">
-        <v>1.035808471902422</v>
+        <v>1.032858658187178</v>
       </c>
       <c r="L2">
-        <v>1.020631989624339</v>
+        <v>1.017249240955445</v>
       </c>
       <c r="M2">
-        <v>1.039801959384022</v>
+        <v>1.0367996834352</v>
       </c>
       <c r="N2">
-        <v>1.027294203561804</v>
+        <v>1.02304565786121</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010402230761378</v>
+        <v>1.003966365044534</v>
       </c>
       <c r="D3">
-        <v>1.02978393902641</v>
+        <v>1.025124037227343</v>
       </c>
       <c r="E3">
-        <v>1.01478377958778</v>
+        <v>1.009525844212664</v>
       </c>
       <c r="F3">
-        <v>1.034371279149192</v>
+        <v>1.029632648336269</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047430287217143</v>
+        <v>1.045670445369178</v>
       </c>
       <c r="J3">
-        <v>1.03061328208468</v>
+        <v>1.024349483868611</v>
       </c>
       <c r="K3">
-        <v>1.040049400295199</v>
+        <v>1.035445234913349</v>
       </c>
       <c r="L3">
-        <v>1.025230930171663</v>
+        <v>1.020038273892084</v>
       </c>
       <c r="M3">
-        <v>1.044582479235008</v>
+        <v>1.039899909349153</v>
       </c>
       <c r="N3">
-        <v>1.032076871158236</v>
+        <v>1.025804177630233</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014580678193539</v>
+        <v>1.006864763949407</v>
       </c>
       <c r="D4">
-        <v>1.032999749438168</v>
+        <v>1.027301844048682</v>
       </c>
       <c r="E4">
-        <v>1.018243768943979</v>
+        <v>1.011849777740558</v>
       </c>
       <c r="F4">
-        <v>1.03793064047621</v>
+        <v>1.032139146051349</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04858059670376</v>
+        <v>1.046342881536231</v>
       </c>
       <c r="J4">
-        <v>1.033618622204291</v>
+        <v>1.026094483658939</v>
       </c>
       <c r="K4">
-        <v>1.042715564898939</v>
+        <v>1.037081558733306</v>
       </c>
       <c r="L4">
-        <v>1.028126883291996</v>
+        <v>1.021807259552866</v>
       </c>
       <c r="M4">
-        <v>1.047591854353893</v>
+        <v>1.041864557091238</v>
       </c>
       <c r="N4">
-        <v>1.035086479205534</v>
+        <v>1.027551655520417</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016311408317054</v>
+        <v>1.008069657641959</v>
       </c>
       <c r="D5">
-        <v>1.034332236599117</v>
+        <v>1.028207651099559</v>
       </c>
       <c r="E5">
-        <v>1.019678308449754</v>
+        <v>1.012817289696424</v>
       </c>
       <c r="F5">
-        <v>1.03940607866708</v>
+        <v>1.03318207756338</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049054207586426</v>
+        <v>1.046619916281889</v>
       </c>
       <c r="J5">
-        <v>1.034862655143383</v>
+        <v>1.026819397780015</v>
       </c>
       <c r="K5">
-        <v>1.043818565291092</v>
+        <v>1.037760775491621</v>
       </c>
       <c r="L5">
-        <v>1.029326100645247</v>
+        <v>1.022542659819818</v>
       </c>
       <c r="M5">
-        <v>1.048837801629897</v>
+        <v>1.042680875974508</v>
       </c>
       <c r="N5">
-        <v>1.036332278814093</v>
+        <v>1.028277599102694</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016600524980298</v>
+        <v>1.008271181618674</v>
       </c>
       <c r="D6">
-        <v>1.034554852935204</v>
+        <v>1.028359177438467</v>
       </c>
       <c r="E6">
-        <v>1.019918026740171</v>
+        <v>1.012979193194848</v>
       </c>
       <c r="F6">
-        <v>1.039652613125398</v>
+        <v>1.033356567182445</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049133154374032</v>
+        <v>1.046666103208438</v>
       </c>
       <c r="J6">
-        <v>1.035070421271856</v>
+        <v>1.02694061253896</v>
       </c>
       <c r="K6">
-        <v>1.044002739582118</v>
+        <v>1.037874316249116</v>
       </c>
       <c r="L6">
-        <v>1.029526409247556</v>
+        <v>1.022665658655475</v>
       </c>
       <c r="M6">
-        <v>1.049045901147247</v>
+        <v>1.042817383719886</v>
       </c>
       <c r="N6">
-        <v>1.036540339994299</v>
+        <v>1.0283989860005</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014603904299597</v>
+        <v>1.006880916562881</v>
       </c>
       <c r="D7">
-        <v>1.033017629398926</v>
+        <v>1.027313985372185</v>
       </c>
       <c r="E7">
-        <v>1.018263014795373</v>
+        <v>1.011862742466567</v>
       </c>
       <c r="F7">
-        <v>1.037950436240044</v>
+        <v>1.032153123725271</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048586963840482</v>
+        <v>1.046346605365042</v>
       </c>
       <c r="J7">
-        <v>1.033635320125877</v>
+        <v>1.026104203765047</v>
       </c>
       <c r="K7">
-        <v>1.042730372363279</v>
+        <v>1.037090668296843</v>
       </c>
       <c r="L7">
-        <v>1.028142977851514</v>
+        <v>1.021817118202833</v>
       </c>
       <c r="M7">
-        <v>1.047608577035809</v>
+        <v>1.041875502201012</v>
       </c>
       <c r="N7">
-        <v>1.035103200840084</v>
+        <v>1.02756138943019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006035031647402</v>
+        <v>1.000953134866417</v>
       </c>
       <c r="D8">
-        <v>1.026424833028899</v>
+        <v>1.022861746516708</v>
       </c>
       <c r="E8">
-        <v>1.011172581560222</v>
+        <v>1.007114915229463</v>
       </c>
       <c r="F8">
-        <v>1.030655364349236</v>
+        <v>1.027030308530251</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046218266699412</v>
+        <v>1.044962828136745</v>
       </c>
       <c r="J8">
-        <v>1.027469607203555</v>
+        <v>1.022533724790159</v>
       </c>
       <c r="K8">
-        <v>1.037258375303552</v>
+        <v>1.033740695653415</v>
       </c>
       <c r="L8">
-        <v>1.022203310351254</v>
+        <v>1.018199365309604</v>
       </c>
       <c r="M8">
-        <v>1.04143550254125</v>
+        <v>1.037856173912342</v>
       </c>
       <c r="N8">
-        <v>1.028928731898196</v>
+        <v>1.023985839965619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9899973580643671</v>
+        <v>0.9900328276410613</v>
       </c>
       <c r="D9">
-        <v>1.014110336706242</v>
+        <v>1.014680208913579</v>
       </c>
       <c r="E9">
-        <v>0.9979557379078615</v>
+        <v>0.9984195399378047</v>
       </c>
       <c r="F9">
-        <v>1.017048315364995</v>
+        <v>1.017629168128424</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04169406672902</v>
+        <v>1.042334037459033</v>
       </c>
       <c r="J9">
-        <v>1.015908348188824</v>
+        <v>1.01594252951284</v>
       </c>
       <c r="K9">
-        <v>1.026978557838854</v>
+        <v>1.027539516830986</v>
       </c>
       <c r="L9">
-        <v>1.011082069139133</v>
+        <v>1.011538311153704</v>
       </c>
       <c r="M9">
-        <v>1.029870721102838</v>
+        <v>1.030442555955858</v>
       </c>
       <c r="N9">
-        <v>1.017351054569568</v>
+        <v>1.017385284434986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9785716599118701</v>
+        <v>0.9823978567713051</v>
       </c>
       <c r="D10">
-        <v>1.005361779110595</v>
+        <v>1.00897822607727</v>
       </c>
       <c r="E10">
-        <v>0.9885826373503035</v>
+        <v>0.9923782102164331</v>
       </c>
       <c r="F10">
-        <v>1.007393799384725</v>
+        <v>1.011084936214691</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038413484300408</v>
+        <v>1.040445118907523</v>
       </c>
       <c r="J10">
-        <v>1.007662031740309</v>
+        <v>1.011327683689856</v>
       </c>
       <c r="K10">
-        <v>1.019634895135306</v>
+        <v>1.02318724620063</v>
       </c>
       <c r="L10">
-        <v>1.003161141759045</v>
+        <v>1.006886455670684</v>
       </c>
       <c r="M10">
-        <v>1.021630827529305</v>
+        <v>1.025256892045612</v>
       </c>
       <c r="N10">
-        <v>1.009093027405831</v>
+        <v>1.012763885001602</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9734237200284872</v>
+        <v>0.9789990731065994</v>
       </c>
       <c r="D11">
-        <v>1.001427861731923</v>
+        <v>1.006445257958897</v>
       </c>
       <c r="E11">
-        <v>0.9843713250305253</v>
+        <v>0.9896986982471968</v>
       </c>
       <c r="F11">
-        <v>1.003055251743049</v>
+        <v>1.008179463835093</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036922846476748</v>
+        <v>1.039592817748535</v>
       </c>
       <c r="J11">
-        <v>1.003945477007415</v>
+        <v>1.009272386537597</v>
       </c>
       <c r="K11">
-        <v>1.016322900814894</v>
+        <v>1.021246641205735</v>
       </c>
       <c r="L11">
-        <v>0.9995941189037393</v>
+        <v>1.004817532348926</v>
       </c>
       <c r="M11">
-        <v>1.017919779583367</v>
+        <v>1.022948758559248</v>
       </c>
       <c r="N11">
-        <v>1.005371194738921</v>
+        <v>1.010705669091641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9714788637247312</v>
+        <v>0.9777218795479811</v>
       </c>
       <c r="D12">
-        <v>0.9999430141363905</v>
+        <v>1.005494311714165</v>
       </c>
       <c r="E12">
-        <v>0.9827822476304546</v>
+        <v>0.9886933450627381</v>
       </c>
       <c r="F12">
-        <v>1.00141807457455</v>
+        <v>1.007088899763342</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036357910535135</v>
+        <v>1.039270882216513</v>
       </c>
       <c r="J12">
-        <v>1.002541334833372</v>
+        <v>1.008499959320819</v>
       </c>
       <c r="K12">
-        <v>1.01507130598685</v>
+        <v>1.02051700100572</v>
       </c>
       <c r="L12">
-        <v>0.998246917629018</v>
+        <v>1.004040416626312</v>
       </c>
       <c r="M12">
-        <v>1.016518156849217</v>
+        <v>1.022081536271553</v>
       </c>
       <c r="N12">
-        <v>1.003965058521933</v>
+        <v>1.009932144939616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9718975651415956</v>
+        <v>0.9779965220026564</v>
       </c>
       <c r="D13">
-        <v>1.000262617340039</v>
+        <v>1.005698757493427</v>
       </c>
       <c r="E13">
-        <v>0.98312426501302</v>
+        <v>0.9889094607036613</v>
       </c>
       <c r="F13">
-        <v>1.001770447995517</v>
+        <v>1.007323352101475</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03647961242937</v>
+        <v>1.039340183851251</v>
       </c>
       <c r="J13">
-        <v>1.002843628239364</v>
+        <v>1.008666061988012</v>
       </c>
       <c r="K13">
-        <v>1.015340770738248</v>
+        <v>1.020673916726543</v>
       </c>
       <c r="L13">
-        <v>0.9985369320055704</v>
+        <v>1.004207507909885</v>
       </c>
       <c r="M13">
-        <v>1.016819887242542</v>
+        <v>1.022268013120903</v>
       </c>
       <c r="N13">
-        <v>1.004267781219236</v>
+        <v>1.010098483491649</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9732636401105574</v>
+        <v>0.9788938052431718</v>
       </c>
       <c r="D14">
-        <v>1.001305616138116</v>
+        <v>1.006366861137428</v>
       </c>
       <c r="E14">
-        <v>0.9842404890155277</v>
+        <v>0.9896158038032822</v>
       </c>
       <c r="F14">
-        <v>1.00292045708329</v>
+        <v>1.008089552209417</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036876382516422</v>
+        <v>1.039566316779932</v>
       </c>
       <c r="J14">
-        <v>1.003829903326042</v>
+        <v>1.009208723611054</v>
       </c>
       <c r="K14">
-        <v>1.016219888980656</v>
+        <v>1.021186511072292</v>
       </c>
       <c r="L14">
-        <v>0.9994832228297875</v>
+        <v>1.004753474187141</v>
       </c>
       <c r="M14">
-        <v>1.017804404085125</v>
+        <v>1.022877277973791</v>
       </c>
       <c r="N14">
-        <v>1.005255456929665</v>
+        <v>1.010641915756441</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9741009119500764</v>
+        <v>0.9794446739900433</v>
       </c>
       <c r="D15">
-        <v>1.001945058163365</v>
+        <v>1.006777150100514</v>
       </c>
       <c r="E15">
-        <v>0.9849248847402744</v>
+        <v>0.990049655757159</v>
       </c>
       <c r="F15">
-        <v>1.003625556803583</v>
+        <v>1.008560113085266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037119332762572</v>
+        <v>1.039704929625153</v>
       </c>
       <c r="J15">
-        <v>1.004434391104092</v>
+        <v>1.009541869650754</v>
       </c>
       <c r="K15">
-        <v>1.016758662336674</v>
+        <v>1.021501157330777</v>
       </c>
       <c r="L15">
-        <v>1.000063263457707</v>
+        <v>1.005088706130696</v>
       </c>
       <c r="M15">
-        <v>1.018407873441703</v>
+        <v>1.023251342915668</v>
       </c>
       <c r="N15">
-        <v>1.005860803149695</v>
+        <v>1.010975534901729</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9789088751440044</v>
+        <v>0.9826214014154091</v>
       </c>
       <c r="D16">
-        <v>1.005619647148623</v>
+        <v>1.009144942928673</v>
       </c>
       <c r="E16">
-        <v>0.988858756321191</v>
+        <v>0.9925546582327817</v>
       </c>
       <c r="F16">
-        <v>1.007678246621708</v>
+        <v>1.011276203751755</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038510876619219</v>
+        <v>1.040500943188615</v>
       </c>
       <c r="J16">
-        <v>1.007905470525322</v>
+        <v>1.011462849307587</v>
       </c>
       <c r="K16">
-        <v>1.019851791249487</v>
+        <v>1.023314824034528</v>
       </c>
       <c r="L16">
-        <v>1.003394846883181</v>
+        <v>1.007022577195283</v>
       </c>
       <c r="M16">
-        <v>1.02187396357262</v>
+        <v>1.025408715726212</v>
       </c>
       <c r="N16">
-        <v>1.009336811901841</v>
+        <v>1.012899242570014</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9818693791674676</v>
+        <v>0.9845886932107506</v>
       </c>
       <c r="D17">
-        <v>1.007884445150527</v>
+        <v>1.010612742064027</v>
       </c>
       <c r="E17">
-        <v>0.9912842327259576</v>
+        <v>0.9941086083767645</v>
       </c>
       <c r="F17">
-        <v>1.010176793104021</v>
+        <v>1.012960336114626</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039364502676633</v>
+        <v>1.040990927256256</v>
       </c>
       <c r="J17">
-        <v>1.01004257263944</v>
+        <v>1.012652264531553</v>
       </c>
       <c r="K17">
-        <v>1.021755629476525</v>
+        <v>1.024437215528344</v>
       </c>
       <c r="L17">
-        <v>1.005446826429411</v>
+        <v>1.008220729619001</v>
       </c>
       <c r="M17">
-        <v>1.024008708520992</v>
+        <v>1.026744876656467</v>
       </c>
       <c r="N17">
-        <v>1.01147694894609</v>
+        <v>1.014090346900026</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9835770291616419</v>
+        <v>0.9857272847084854</v>
       </c>
       <c r="D18">
-        <v>1.009191527936518</v>
+        <v>1.01146274602556</v>
       </c>
       <c r="E18">
-        <v>0.9926843753866906</v>
+        <v>0.9950089033132817</v>
       </c>
       <c r="F18">
-        <v>1.011619039323816</v>
+        <v>1.013935776248135</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039855694331466</v>
+        <v>1.041273422097313</v>
       </c>
       <c r="J18">
-        <v>1.011275163163544</v>
+        <v>1.013340557406754</v>
       </c>
       <c r="K18">
-        <v>1.02285346760187</v>
+        <v>1.02508650808379</v>
       </c>
       <c r="L18">
-        <v>1.00663059228403</v>
+        <v>1.008914349353589</v>
       </c>
       <c r="M18">
-        <v>1.025240182325649</v>
+        <v>1.027518218923227</v>
       </c>
       <c r="N18">
-        <v>1.012711289890119</v>
+        <v>1.014779617230058</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841561164324946</v>
+        <v>0.9861140291597675</v>
       </c>
       <c r="D19">
-        <v>1.009634894929024</v>
+        <v>1.011751548225256</v>
       </c>
       <c r="E19">
-        <v>0.9931593654355932</v>
+        <v>0.9953148612914734</v>
       </c>
       <c r="F19">
-        <v>1.012108298803648</v>
+        <v>1.01426722453912</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040022059545335</v>
+        <v>1.04136919048622</v>
       </c>
       <c r="J19">
-        <v>1.011693129040228</v>
+        <v>1.013574331741128</v>
       </c>
       <c r="K19">
-        <v>1.023225701821498</v>
+        <v>1.02530699913398</v>
       </c>
       <c r="L19">
-        <v>1.007032047428092</v>
+        <v>1.009149978764256</v>
       </c>
       <c r="M19">
-        <v>1.02565780940729</v>
+        <v>1.02778090133014</v>
       </c>
       <c r="N19">
-        <v>1.013129849326289</v>
+        <v>1.015013723550802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.981553744651659</v>
+        <v>0.9843785471826961</v>
       </c>
       <c r="D20">
-        <v>1.007642907020763</v>
+        <v>1.01045589938979</v>
       </c>
       <c r="E20">
-        <v>0.9910255247126361</v>
+        <v>0.9939425185546265</v>
       </c>
       <c r="F20">
-        <v>1.009910299050931</v>
+        <v>1.012780360798517</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039273616032893</v>
+        <v>1.040938699719601</v>
       </c>
       <c r="J20">
-        <v>1.009814736145109</v>
+        <v>1.012525220629408</v>
       </c>
       <c r="K20">
-        <v>1.021552683369531</v>
+        <v>1.024317352718944</v>
       </c>
       <c r="L20">
-        <v>1.005228036666387</v>
+        <v>1.008092724360035</v>
       </c>
       <c r="M20">
-        <v>1.023781097786806</v>
+        <v>1.026602144893789</v>
       </c>
       <c r="N20">
-        <v>1.011248788897804</v>
+        <v>1.013963122580968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9728622892418367</v>
+        <v>0.9786299910768268</v>
       </c>
       <c r="D21">
-        <v>1.000999145660364</v>
+        <v>1.006170403775124</v>
       </c>
       <c r="E21">
-        <v>0.9839124897381727</v>
+        <v>0.98940808543824</v>
       </c>
       <c r="F21">
-        <v>1.002582532353681</v>
+        <v>1.007864243150903</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036759860184741</v>
+        <v>1.039499875599545</v>
       </c>
       <c r="J21">
-        <v>1.003540137623141</v>
+        <v>1.009049175280446</v>
       </c>
       <c r="K21">
-        <v>1.015961613613353</v>
+        <v>1.021035811391323</v>
       </c>
       <c r="L21">
-        <v>0.9992051920332675</v>
+        <v>1.004592942320285</v>
       </c>
       <c r="M21">
-        <v>1.017515142493333</v>
+        <v>1.0226981411936</v>
       </c>
       <c r="N21">
-        <v>1.004965279726229</v>
+        <v>1.010482140848902</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9672070505049446</v>
+        <v>0.9749299645786113</v>
       </c>
       <c r="D22">
-        <v>0.9966843211171333</v>
+        <v>1.003417309610484</v>
       </c>
       <c r="E22">
-        <v>0.9792956260921843</v>
+        <v>0.9864986062820368</v>
       </c>
       <c r="F22">
-        <v>0.9978257880885461</v>
+        <v>1.004707357589584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035113880442224</v>
+        <v>1.038564157369787</v>
       </c>
       <c r="J22">
-        <v>0.9994572194759979</v>
+        <v>1.006811351547059</v>
       </c>
       <c r="K22">
-        <v>1.012321749661705</v>
+        <v>1.018921371548891</v>
       </c>
       <c r="L22">
-        <v>0.9952887094583818</v>
+        <v>1.002342358616599</v>
       </c>
       <c r="M22">
-        <v>1.013440439938921</v>
+        <v>1.020186134066838</v>
       </c>
       <c r="N22">
-        <v>1.000876563366999</v>
+        <v>1.008241139149131</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9702239954191701</v>
+        <v>0.976899820095174</v>
       </c>
       <c r="D23">
-        <v>0.9989853624197088</v>
+        <v>1.004882502773411</v>
       </c>
       <c r="E23">
-        <v>0.9817575001589263</v>
+        <v>0.9880467013993265</v>
       </c>
       <c r="F23">
-        <v>1.000362287894353</v>
+        <v>1.006387327960916</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035992911030483</v>
+        <v>1.039063210353678</v>
       </c>
       <c r="J23">
-        <v>1.00163534846658</v>
+        <v>1.008002772404027</v>
       </c>
       <c r="K23">
-        <v>1.014263668076414</v>
+        <v>1.020047268155763</v>
       </c>
       <c r="L23">
-        <v>0.997377798653115</v>
+        <v>1.003540334193215</v>
       </c>
       <c r="M23">
-        <v>1.015613926029455</v>
+        <v>1.021523398981175</v>
       </c>
       <c r="N23">
-        <v>1.003057785550583</v>
+        <v>1.009434251960375</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9816964253298869</v>
+        <v>0.9844735305621842</v>
       </c>
       <c r="D24">
-        <v>1.007752090642577</v>
+        <v>1.010526788778166</v>
       </c>
       <c r="E24">
-        <v>0.9911424686979544</v>
+        <v>0.9940175862033634</v>
       </c>
       <c r="F24">
-        <v>1.01003076280786</v>
+        <v>1.012861705135669</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039314704490505</v>
+        <v>1.040962309293819</v>
       </c>
       <c r="J24">
-        <v>1.009917728615384</v>
+        <v>1.012582643182004</v>
       </c>
       <c r="K24">
-        <v>1.021644424923792</v>
+        <v>1.024371530158556</v>
       </c>
       <c r="L24">
-        <v>1.005326938763459</v>
+        <v>1.00815058059674</v>
       </c>
       <c r="M24">
-        <v>1.023883987452793</v>
+        <v>1.02666665779717</v>
       </c>
       <c r="N24">
-        <v>1.0113519276292</v>
+        <v>1.014020626680175</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9942646544258198</v>
+        <v>0.9929157718673294</v>
       </c>
       <c r="D25">
-        <v>1.017383357424533</v>
+        <v>1.016837310482593</v>
       </c>
       <c r="E25">
-        <v>1.001465620155537</v>
+        <v>1.000708798180207</v>
       </c>
       <c r="F25">
-        <v>1.020662719408199</v>
+        <v>1.020106427834874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04290799786951</v>
+        <v>1.043037035513828</v>
       </c>
       <c r="J25">
-        <v>1.018986589550712</v>
+        <v>1.017683923426677</v>
       </c>
       <c r="K25">
-        <v>1.029717682062747</v>
+        <v>1.029179753023507</v>
       </c>
       <c r="L25">
-        <v>1.014041226784814</v>
+        <v>1.013296120925702</v>
       </c>
       <c r="M25">
-        <v>1.032948522924419</v>
+        <v>1.032400434276892</v>
       </c>
       <c r="N25">
-        <v>1.02043366738727</v>
+        <v>1.01912915132792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9993960869402535</v>
+        <v>0.9971232434928722</v>
       </c>
       <c r="D2">
-        <v>1.021693496542823</v>
+        <v>1.02031724872157</v>
       </c>
       <c r="E2">
-        <v>1.005871098334296</v>
+        <v>1.003982392983466</v>
       </c>
       <c r="F2">
-        <v>1.025686975542922</v>
+        <v>1.028784106809258</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044593954649923</v>
+        <v>1.044256609920242</v>
       </c>
       <c r="J2">
-        <v>1.021594875958779</v>
+        <v>1.019390339631465</v>
       </c>
       <c r="K2">
-        <v>1.032858658187178</v>
+        <v>1.03150060653042</v>
       </c>
       <c r="L2">
-        <v>1.017249240955445</v>
+        <v>1.015386524166995</v>
       </c>
       <c r="M2">
-        <v>1.0367996834352</v>
+        <v>1.039856485334381</v>
       </c>
       <c r="N2">
-        <v>1.02304565786121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010390326544097</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040116125062231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003966365044534</v>
+        <v>1.000706124365118</v>
       </c>
       <c r="D3">
-        <v>1.025124037227343</v>
+        <v>1.02273924964503</v>
       </c>
       <c r="E3">
-        <v>1.009525844212664</v>
+        <v>1.00677420619998</v>
       </c>
       <c r="F3">
-        <v>1.029632648336269</v>
+        <v>1.031270649476084</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045670445369178</v>
+        <v>1.044865754434935</v>
       </c>
       <c r="J3">
-        <v>1.024349483868611</v>
+        <v>1.021177558210314</v>
       </c>
       <c r="K3">
-        <v>1.035445234913349</v>
+        <v>1.033089215394977</v>
       </c>
       <c r="L3">
-        <v>1.020038273892084</v>
+        <v>1.017321137393912</v>
       </c>
       <c r="M3">
-        <v>1.039899909349153</v>
+        <v>1.041518459739935</v>
       </c>
       <c r="N3">
-        <v>1.025804177630233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010996191264193</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041431465873156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006864763949407</v>
+        <v>1.002985570936577</v>
       </c>
       <c r="D4">
-        <v>1.027301844048682</v>
+        <v>1.024282676210408</v>
       </c>
       <c r="E4">
-        <v>1.011849777740558</v>
+        <v>1.008556297103384</v>
       </c>
       <c r="F4">
-        <v>1.032139146051349</v>
+        <v>1.03285789315364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046342881536231</v>
+        <v>1.045243655410556</v>
       </c>
       <c r="J4">
-        <v>1.026094483658939</v>
+        <v>1.022313212611737</v>
       </c>
       <c r="K4">
-        <v>1.037081558733306</v>
+        <v>1.034096604680859</v>
       </c>
       <c r="L4">
-        <v>1.021807259552866</v>
+        <v>1.018552540477918</v>
       </c>
       <c r="M4">
-        <v>1.041864557091238</v>
+        <v>1.042575288933232</v>
       </c>
       <c r="N4">
-        <v>1.027551655520417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011380966961984</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042267873759132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008069657641959</v>
+        <v>1.003934794522535</v>
       </c>
       <c r="D5">
-        <v>1.028207651099559</v>
+        <v>1.024925963630151</v>
       </c>
       <c r="E5">
-        <v>1.012817289696424</v>
+        <v>1.009299797026136</v>
       </c>
       <c r="F5">
-        <v>1.03318207756338</v>
+        <v>1.033520088776853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046619916281889</v>
+        <v>1.045398674446546</v>
       </c>
       <c r="J5">
-        <v>1.026819397780015</v>
+        <v>1.022785771722548</v>
       </c>
       <c r="K5">
-        <v>1.037760775491621</v>
+        <v>1.034515282411454</v>
       </c>
       <c r="L5">
-        <v>1.022542659819818</v>
+        <v>1.019065444524798</v>
       </c>
       <c r="M5">
-        <v>1.042680875974508</v>
+        <v>1.043015219027531</v>
       </c>
       <c r="N5">
-        <v>1.028277599102694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01154102416426</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042616047997587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008271181618674</v>
+        <v>1.004093649709853</v>
       </c>
       <c r="D6">
-        <v>1.028359177438467</v>
+        <v>1.025033651295077</v>
       </c>
       <c r="E6">
-        <v>1.012979193194848</v>
+        <v>1.009424304471937</v>
       </c>
       <c r="F6">
-        <v>1.033356567182445</v>
+        <v>1.033630979679879</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046666103208438</v>
+        <v>1.045424478193384</v>
       </c>
       <c r="J6">
-        <v>1.02694061253896</v>
+        <v>1.022864833975658</v>
       </c>
       <c r="K6">
-        <v>1.037874316249116</v>
+        <v>1.034585299645793</v>
       </c>
       <c r="L6">
-        <v>1.022665658655475</v>
+        <v>1.019151286350316</v>
       </c>
       <c r="M6">
-        <v>1.042817383719886</v>
+        <v>1.043088831972864</v>
       </c>
       <c r="N6">
-        <v>1.0283989860005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011567799640901</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042674307535502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006880916562881</v>
+        <v>1.002998289752111</v>
       </c>
       <c r="D7">
-        <v>1.027313985372185</v>
+        <v>1.024291293572426</v>
       </c>
       <c r="E7">
-        <v>1.011862742466567</v>
+        <v>1.008566253951987</v>
       </c>
       <c r="F7">
-        <v>1.032153123725271</v>
+        <v>1.032866761257997</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046346605365042</v>
+        <v>1.045245741858501</v>
       </c>
       <c r="J7">
-        <v>1.026104203765047</v>
+        <v>1.022319545964037</v>
       </c>
       <c r="K7">
-        <v>1.037090668296843</v>
+        <v>1.034102217928954</v>
       </c>
       <c r="L7">
-        <v>1.021817118202833</v>
+        <v>1.018559412555597</v>
       </c>
       <c r="M7">
-        <v>1.041875502201012</v>
+        <v>1.042581184322288</v>
       </c>
       <c r="N7">
-        <v>1.02756138943019</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011383112297672</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042272539552874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000953134866417</v>
+        <v>0.9983423132804432</v>
       </c>
       <c r="D8">
-        <v>1.022861746516708</v>
+        <v>1.021140771551682</v>
       </c>
       <c r="E8">
-        <v>1.007114915229463</v>
+        <v>1.004931043349676</v>
       </c>
       <c r="F8">
-        <v>1.027030308530251</v>
+        <v>1.029629013766218</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044962828136745</v>
+        <v>1.044465864546641</v>
       </c>
       <c r="J8">
-        <v>1.022533724790159</v>
+        <v>1.019998711025569</v>
       </c>
       <c r="K8">
-        <v>1.033740695653415</v>
+        <v>1.032041794150537</v>
       </c>
       <c r="L8">
-        <v>1.018199365309604</v>
+        <v>1.016044632255011</v>
       </c>
       <c r="M8">
-        <v>1.037856173912342</v>
+        <v>1.040422057789798</v>
       </c>
       <c r="N8">
-        <v>1.023985839965619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010596606196243</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.040563737839596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9900328276410613</v>
+        <v>0.9898275938834693</v>
       </c>
       <c r="D9">
-        <v>1.014680208913579</v>
+        <v>1.015401424793406</v>
       </c>
       <c r="E9">
-        <v>0.9984195399378047</v>
+        <v>0.998331466047546</v>
       </c>
       <c r="F9">
-        <v>1.017629168128424</v>
+        <v>1.0237519099868</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042334037459033</v>
+        <v>1.042965171052392</v>
       </c>
       <c r="J9">
-        <v>1.01594252951284</v>
+        <v>1.015744751630635</v>
       </c>
       <c r="K9">
-        <v>1.027539516830986</v>
+        <v>1.028249470707391</v>
       </c>
       <c r="L9">
-        <v>1.011538311153704</v>
+        <v>1.011451672181719</v>
       </c>
       <c r="M9">
-        <v>1.030442555955858</v>
+        <v>1.036471034341116</v>
       </c>
       <c r="N9">
-        <v>1.017385284434986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009153425154855</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.037436761157879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9823978567713051</v>
+        <v>0.9839691891498988</v>
       </c>
       <c r="D10">
-        <v>1.00897822607727</v>
+        <v>1.011493569715341</v>
       </c>
       <c r="E10">
-        <v>0.9923782102164331</v>
+        <v>0.9938310273609231</v>
       </c>
       <c r="F10">
-        <v>1.011084936214691</v>
+        <v>1.019815843747494</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040445118907523</v>
+        <v>1.041904989186249</v>
       </c>
       <c r="J10">
-        <v>1.011327683689856</v>
+        <v>1.012833598088259</v>
       </c>
       <c r="K10">
-        <v>1.02318724620063</v>
+        <v>1.025658359438381</v>
       </c>
       <c r="L10">
-        <v>1.006886455670684</v>
+        <v>1.008312565035283</v>
       </c>
       <c r="M10">
-        <v>1.025256892045612</v>
+        <v>1.033836302733653</v>
       </c>
       <c r="N10">
-        <v>1.012763885001602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.008168157199201</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.035403166814873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9789990731065994</v>
+        <v>0.9817316888243836</v>
       </c>
       <c r="D11">
-        <v>1.006445257958897</v>
+        <v>1.010188679837507</v>
       </c>
       <c r="E11">
-        <v>0.9896986982471968</v>
+        <v>0.9921660831239855</v>
       </c>
       <c r="F11">
-        <v>1.008179463835093</v>
+        <v>1.018915995910999</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039592817748535</v>
+        <v>1.041649181485438</v>
       </c>
       <c r="J11">
-        <v>1.009272386537597</v>
+        <v>1.011884706229645</v>
       </c>
       <c r="K11">
-        <v>1.021246641205735</v>
+        <v>1.024920976901091</v>
       </c>
       <c r="L11">
-        <v>1.004817532348926</v>
+        <v>1.007237263413243</v>
       </c>
       <c r="M11">
-        <v>1.022948758559248</v>
+        <v>1.033489788508804</v>
       </c>
       <c r="N11">
-        <v>1.010705669091641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007875480122183</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035566618014669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9777218795479811</v>
+        <v>0.9810236232662005</v>
       </c>
       <c r="D12">
-        <v>1.005494311714165</v>
+        <v>1.009852619423387</v>
       </c>
       <c r="E12">
-        <v>0.9886933450627381</v>
+        <v>0.9916612106839862</v>
       </c>
       <c r="F12">
-        <v>1.007088899763342</v>
+        <v>1.018880829785487</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039270882216513</v>
+        <v>1.041633759018302</v>
       </c>
       <c r="J12">
-        <v>1.008499959320819</v>
+        <v>1.011653391152113</v>
       </c>
       <c r="K12">
-        <v>1.02051700100572</v>
+        <v>1.02479346220894</v>
       </c>
       <c r="L12">
-        <v>1.004040416626312</v>
+        <v>1.006949931671919</v>
       </c>
       <c r="M12">
-        <v>1.022081536271553</v>
+        <v>1.033655027353119</v>
       </c>
       <c r="N12">
-        <v>1.009932144939616</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007821354031643</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036024644533351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9779965220026564</v>
+        <v>0.9814470146644403</v>
       </c>
       <c r="D13">
-        <v>1.005698757493427</v>
+        <v>1.010242391340497</v>
       </c>
       <c r="E13">
-        <v>0.9889094607036613</v>
+        <v>0.9920142906775401</v>
       </c>
       <c r="F13">
-        <v>1.007323352101475</v>
+        <v>1.019521443548508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039340183851251</v>
+        <v>1.041808245682792</v>
       </c>
       <c r="J13">
-        <v>1.008666061988012</v>
+        <v>1.011962288682676</v>
       </c>
       <c r="K13">
-        <v>1.020673916726543</v>
+        <v>1.025132575267137</v>
       </c>
       <c r="L13">
-        <v>1.004207507909885</v>
+        <v>1.007251546113528</v>
       </c>
       <c r="M13">
-        <v>1.022268013120903</v>
+        <v>1.034241150774923</v>
       </c>
       <c r="N13">
-        <v>1.010098483491649</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007948204095281</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.036765407708642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9788938052431718</v>
+        <v>0.9822549169472631</v>
       </c>
       <c r="D14">
-        <v>1.006366861137428</v>
+        <v>1.010842416005008</v>
       </c>
       <c r="E14">
-        <v>0.9896158038032822</v>
+        <v>0.99264917082555</v>
       </c>
       <c r="F14">
-        <v>1.008089552209417</v>
+        <v>1.020274019961649</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039566316779932</v>
+        <v>1.042015188725509</v>
       </c>
       <c r="J14">
-        <v>1.009208723611054</v>
+        <v>1.012421748856189</v>
       </c>
       <c r="K14">
-        <v>1.021186511072292</v>
+        <v>1.025579421089508</v>
       </c>
       <c r="L14">
-        <v>1.004753474187141</v>
+        <v>1.007728210137274</v>
       </c>
       <c r="M14">
-        <v>1.022877277973791</v>
+        <v>1.034839946267997</v>
       </c>
       <c r="N14">
-        <v>1.010641915756441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008118413609665</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.037412393349974</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9794446739900433</v>
+        <v>0.982699860152668</v>
       </c>
       <c r="D15">
-        <v>1.006777150100514</v>
+        <v>1.011151260580633</v>
       </c>
       <c r="E15">
-        <v>0.990049655757159</v>
+        <v>0.9929927987225928</v>
       </c>
       <c r="F15">
-        <v>1.008560113085266</v>
+        <v>1.020617078805295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039704929625153</v>
+        <v>1.042109665756954</v>
       </c>
       <c r="J15">
-        <v>1.009541869650754</v>
+        <v>1.012654919999685</v>
       </c>
       <c r="K15">
-        <v>1.021501157330777</v>
+        <v>1.025795123787091</v>
       </c>
       <c r="L15">
-        <v>1.005088706130696</v>
+        <v>1.007975411508839</v>
       </c>
       <c r="M15">
-        <v>1.023251342915668</v>
+        <v>1.035090558124741</v>
       </c>
       <c r="N15">
-        <v>1.010975534901729</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008200482752498</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.037648074121061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9826214014154091</v>
+        <v>0.9850944336693397</v>
       </c>
       <c r="D16">
-        <v>1.009144942928673</v>
+        <v>1.012732511877431</v>
       </c>
       <c r="E16">
-        <v>0.9925546582327817</v>
+        <v>0.9948202566358043</v>
       </c>
       <c r="F16">
-        <v>1.011276203751755</v>
+        <v>1.022189527062465</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040500943188615</v>
+        <v>1.042540673804223</v>
       </c>
       <c r="J16">
-        <v>1.011462849307587</v>
+        <v>1.013833454806347</v>
       </c>
       <c r="K16">
-        <v>1.023314824034528</v>
+        <v>1.026839606333465</v>
       </c>
       <c r="L16">
-        <v>1.007022577195283</v>
+        <v>1.009246712175512</v>
       </c>
       <c r="M16">
-        <v>1.025408715726212</v>
+        <v>1.036133839920231</v>
       </c>
       <c r="N16">
-        <v>1.012899242570014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008594831362465</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.038433898985597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9845886932107506</v>
+        <v>0.9865098585443758</v>
       </c>
       <c r="D17">
-        <v>1.010612742064027</v>
+        <v>1.013631963533439</v>
       </c>
       <c r="E17">
-        <v>0.9941086083767645</v>
+        <v>0.9958924394382582</v>
       </c>
       <c r="F17">
-        <v>1.012960336114626</v>
+        <v>1.022997124157751</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040990927256256</v>
+        <v>1.042759985037532</v>
       </c>
       <c r="J17">
-        <v>1.012652264531553</v>
+        <v>1.014496499000849</v>
       </c>
       <c r="K17">
-        <v>1.024437215528344</v>
+        <v>1.027405123508648</v>
       </c>
       <c r="L17">
-        <v>1.008220729619001</v>
+        <v>1.009972874428203</v>
       </c>
       <c r="M17">
-        <v>1.026744876656467</v>
+        <v>1.03661359759022</v>
       </c>
       <c r="N17">
-        <v>1.014090346900026</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008807920395396</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.038683846285271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9857272847084854</v>
+        <v>0.9872118298719986</v>
       </c>
       <c r="D18">
-        <v>1.01146274602556</v>
+        <v>1.014013855183551</v>
       </c>
       <c r="E18">
-        <v>0.9950089033132817</v>
+        <v>0.9964078204396876</v>
       </c>
       <c r="F18">
-        <v>1.013935776248135</v>
+        <v>1.023181026145304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041273422097313</v>
+        <v>1.042810607313776</v>
       </c>
       <c r="J18">
-        <v>1.013340557406754</v>
+        <v>1.014766818957683</v>
       </c>
       <c r="K18">
-        <v>1.02508650808379</v>
+        <v>1.027594997543447</v>
       </c>
       <c r="L18">
-        <v>1.008914349353589</v>
+        <v>1.010288849009389</v>
       </c>
       <c r="M18">
-        <v>1.027518218923227</v>
+        <v>1.036611272008577</v>
       </c>
       <c r="N18">
-        <v>1.014779617230058</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008880898489478</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.038443831402816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,81 +1232,93 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9861140291597675</v>
+        <v>0.9872599305296911</v>
       </c>
       <c r="D19">
-        <v>1.011751548225256</v>
+        <v>1.013918032076416</v>
       </c>
       <c r="E19">
-        <v>0.9953148612914734</v>
+        <v>0.9964119924748103</v>
       </c>
       <c r="F19">
-        <v>1.01426722453912</v>
+        <v>1.022787190041587</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04136919048622</v>
+        <v>1.042706558523521</v>
       </c>
       <c r="J19">
-        <v>1.013574331741128</v>
+        <v>1.014675536717904</v>
       </c>
       <c r="K19">
-        <v>1.02530699913398</v>
+        <v>1.02743749144086</v>
       </c>
       <c r="L19">
-        <v>1.009149978764256</v>
+        <v>1.010228070651772</v>
       </c>
       <c r="M19">
-        <v>1.02778090133014</v>
+        <v>1.036161348522075</v>
       </c>
       <c r="N19">
-        <v>1.015013723550802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008826887270618</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037761779522208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9843785471826961</v>
+        <v>0.9854869446419109</v>
       </c>
       <c r="D20">
-        <v>1.01045589938979</v>
+        <v>1.012505599939773</v>
       </c>
       <c r="E20">
-        <v>0.9939425185546265</v>
+        <v>0.994994546910244</v>
       </c>
       <c r="F20">
-        <v>1.012780360798517</v>
+        <v>1.020836787938167</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040938699719601</v>
+        <v>1.042183960978666</v>
       </c>
       <c r="J20">
-        <v>1.012525220629408</v>
+        <v>1.013589015642792</v>
       </c>
       <c r="K20">
-        <v>1.024317352718944</v>
+        <v>1.026332060842759</v>
       </c>
       <c r="L20">
-        <v>1.008092724360035</v>
+        <v>1.009125985922823</v>
       </c>
       <c r="M20">
-        <v>1.026602144893789</v>
+        <v>1.034522882330403</v>
       </c>
       <c r="N20">
-        <v>1.013963122580968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008424015314848</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.035935935845215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9786299910768268</v>
+        <v>0.9810272075882133</v>
       </c>
       <c r="D21">
-        <v>1.006170403775124</v>
+        <v>1.009502455564007</v>
       </c>
       <c r="E21">
-        <v>0.98940808543824</v>
+        <v>0.9915728238979747</v>
       </c>
       <c r="F21">
-        <v>1.007864243150903</v>
+        <v>1.017736490940746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039499875599545</v>
+        <v>1.041330243112687</v>
       </c>
       <c r="J21">
-        <v>1.009049175280446</v>
+        <v>1.011340162987265</v>
       </c>
       <c r="K21">
-        <v>1.021035811391323</v>
+        <v>1.02430600995339</v>
       </c>
       <c r="L21">
-        <v>1.004592942320285</v>
+        <v>1.006715630105297</v>
       </c>
       <c r="M21">
-        <v>1.0226981411936</v>
+        <v>1.032389454912761</v>
       </c>
       <c r="N21">
-        <v>1.010482140848902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00765756472936</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034206443548402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9749299645786113</v>
+        <v>0.9781924069355321</v>
       </c>
       <c r="D22">
-        <v>1.003417309610484</v>
+        <v>1.00760988784592</v>
       </c>
       <c r="E22">
-        <v>0.9864986062820368</v>
+        <v>0.989408692985989</v>
       </c>
       <c r="F22">
-        <v>1.004707357589584</v>
+        <v>1.015811431683141</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038564157369787</v>
+        <v>1.040788311519575</v>
       </c>
       <c r="J22">
-        <v>1.006811351547059</v>
+        <v>1.009920520591321</v>
       </c>
       <c r="K22">
-        <v>1.018921371548891</v>
+        <v>1.023032083877634</v>
       </c>
       <c r="L22">
-        <v>1.002342358616599</v>
+        <v>1.005192926657163</v>
       </c>
       <c r="M22">
-        <v>1.020186134066838</v>
+        <v>1.031076036407006</v>
       </c>
       <c r="N22">
-        <v>1.008241139149131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007175181573997</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033166950913973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.976899820095174</v>
+        <v>0.9797003285065468</v>
       </c>
       <c r="D23">
-        <v>1.004882502773411</v>
+        <v>1.008616128862675</v>
       </c>
       <c r="E23">
-        <v>0.9880467013993265</v>
+        <v>0.990559089241386</v>
       </c>
       <c r="F23">
-        <v>1.006387327960916</v>
+        <v>1.01683466715137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039063210353678</v>
+        <v>1.04107743257058</v>
       </c>
       <c r="J23">
-        <v>1.008002772404027</v>
+        <v>1.010675700026069</v>
       </c>
       <c r="K23">
-        <v>1.020047268155763</v>
+        <v>1.023709906207056</v>
       </c>
       <c r="L23">
-        <v>1.003540334193215</v>
+        <v>1.00600271288729</v>
       </c>
       <c r="M23">
-        <v>1.021523398981175</v>
+        <v>1.031774578909297</v>
       </c>
       <c r="N23">
-        <v>1.009434251960375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007431798482655</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.033719805951482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9844735305621842</v>
+        <v>0.9855252092983584</v>
       </c>
       <c r="D24">
-        <v>1.010526788778166</v>
+        <v>1.012513131368079</v>
       </c>
       <c r="E24">
-        <v>0.9940175862033634</v>
+        <v>0.9950195512569044</v>
       </c>
       <c r="F24">
-        <v>1.012861705135669</v>
+        <v>1.020803626432122</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040962309293819</v>
+        <v>1.042175405824309</v>
       </c>
       <c r="J24">
-        <v>1.012582643182004</v>
+        <v>1.013592069658157</v>
       </c>
       <c r="K24">
-        <v>1.024371530158556</v>
+        <v>1.026324008941028</v>
       </c>
       <c r="L24">
-        <v>1.00815058059674</v>
+        <v>1.009134697338457</v>
       </c>
       <c r="M24">
-        <v>1.02666665779717</v>
+        <v>1.03447499783802</v>
       </c>
       <c r="N24">
-        <v>1.014020626680175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008422509330526</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.035857023590909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9929157718673294</v>
+        <v>0.9920674129066535</v>
       </c>
       <c r="D25">
-        <v>1.016837310482593</v>
+        <v>1.016908257952522</v>
       </c>
       <c r="E25">
-        <v>1.000708798180207</v>
+        <v>1.000061611522803</v>
       </c>
       <c r="F25">
-        <v>1.020106427834874</v>
+        <v>1.025292435260797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043037035513828</v>
+        <v>1.043368407024009</v>
       </c>
       <c r="J25">
-        <v>1.017683923426677</v>
+        <v>1.016864721450277</v>
       </c>
       <c r="K25">
-        <v>1.029179753023507</v>
+        <v>1.02924964511388</v>
       </c>
       <c r="L25">
-        <v>1.013296120925702</v>
+        <v>1.012658971127</v>
       </c>
       <c r="M25">
-        <v>1.032400434276892</v>
+        <v>1.037510408257262</v>
       </c>
       <c r="N25">
-        <v>1.01912915132792</v>
+        <v>1.009533549900604</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.038259358965781</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9971232434928722</v>
+        <v>0.997373640323032</v>
       </c>
       <c r="D2">
-        <v>1.02031724872157</v>
+        <v>1.020235032854287</v>
       </c>
       <c r="E2">
-        <v>1.003982392983466</v>
+        <v>1.004203025932143</v>
       </c>
       <c r="F2">
-        <v>1.028784106809258</v>
+        <v>1.028777927358847</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.044256609920242</v>
+        <v>1.044231957752934</v>
       </c>
       <c r="J2">
-        <v>1.019390339631465</v>
+        <v>1.019633190130804</v>
       </c>
       <c r="K2">
-        <v>1.03150060653042</v>
+        <v>1.031419479636139</v>
       </c>
       <c r="L2">
-        <v>1.015386524166995</v>
+        <v>1.015604114852954</v>
       </c>
       <c r="M2">
-        <v>1.039856485334381</v>
+        <v>1.039850386047209</v>
       </c>
       <c r="N2">
-        <v>1.010390326544097</v>
+        <v>1.012419609796969</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040116125062231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040111297882793</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020463986654991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000706124365118</v>
+        <v>1.000819339654746</v>
       </c>
       <c r="D3">
-        <v>1.02273924964503</v>
+        <v>1.022479123513593</v>
       </c>
       <c r="E3">
-        <v>1.00677420619998</v>
+        <v>1.006875684558841</v>
       </c>
       <c r="F3">
-        <v>1.031270649476084</v>
+        <v>1.031138862047848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044865754434935</v>
+        <v>1.044764073254828</v>
       </c>
       <c r="J3">
-        <v>1.021177558210314</v>
+        <v>1.021287693538356</v>
       </c>
       <c r="K3">
-        <v>1.033089215394977</v>
+        <v>1.032832237286067</v>
       </c>
       <c r="L3">
-        <v>1.017321137393912</v>
+        <v>1.017421339185453</v>
       </c>
       <c r="M3">
-        <v>1.041518459739935</v>
+        <v>1.041388234413689</v>
       </c>
       <c r="N3">
-        <v>1.010996191264193</v>
+        <v>1.012865686577992</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041431465873156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041328401384404</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020741945768032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002985570936577</v>
+        <v>1.003012455764437</v>
       </c>
       <c r="D4">
-        <v>1.024282676210408</v>
+        <v>1.023909960270557</v>
       </c>
       <c r="E4">
-        <v>1.008556297103384</v>
+        <v>1.008582672212527</v>
       </c>
       <c r="F4">
-        <v>1.03285789315364</v>
+        <v>1.032646750004466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045243655410556</v>
+        <v>1.045093173271633</v>
       </c>
       <c r="J4">
-        <v>1.022313212611737</v>
+        <v>1.022339415267628</v>
       </c>
       <c r="K4">
-        <v>1.034096604680859</v>
+        <v>1.033728129684891</v>
       </c>
       <c r="L4">
-        <v>1.018552540477918</v>
+        <v>1.018578603928367</v>
       </c>
       <c r="M4">
-        <v>1.042575288933232</v>
+        <v>1.042366498967368</v>
       </c>
       <c r="N4">
-        <v>1.011380966961984</v>
+        <v>1.013149121817623</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042267873759132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042102630885271</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020915725182531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003934794522535</v>
+        <v>1.003925943380997</v>
       </c>
       <c r="D5">
-        <v>1.024925963630151</v>
+        <v>1.0245064997959</v>
       </c>
       <c r="E5">
-        <v>1.009299797026136</v>
+        <v>1.00929505883559</v>
       </c>
       <c r="F5">
-        <v>1.033520088776853</v>
+        <v>1.033276027435005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045398674446546</v>
+        <v>1.045227917824966</v>
       </c>
       <c r="J5">
-        <v>1.022785771722548</v>
+        <v>1.022777138494894</v>
       </c>
       <c r="K5">
-        <v>1.034515282411454</v>
+        <v>1.034100465478424</v>
       </c>
       <c r="L5">
-        <v>1.019065444524798</v>
+        <v>1.019060760823118</v>
       </c>
       <c r="M5">
-        <v>1.043015219027531</v>
+        <v>1.042773805989244</v>
       </c>
       <c r="N5">
-        <v>1.01154102416426</v>
+        <v>1.013267055650701</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042616047997587</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042424986297667</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020987345320014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004093649709853</v>
+        <v>1.004078830304835</v>
       </c>
       <c r="D6">
-        <v>1.025033651295077</v>
+        <v>1.024606371990801</v>
       </c>
       <c r="E6">
-        <v>1.009424304471937</v>
+        <v>1.009414368690013</v>
       </c>
       <c r="F6">
-        <v>1.033630979679879</v>
+        <v>1.033381416724353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045424478193384</v>
+        <v>1.045250331328605</v>
       </c>
       <c r="J6">
-        <v>1.022864833975658</v>
+        <v>1.022850377559533</v>
       </c>
       <c r="K6">
-        <v>1.034585299645793</v>
+        <v>1.03416273237495</v>
       </c>
       <c r="L6">
-        <v>1.019151286350316</v>
+        <v>1.019141464303803</v>
       </c>
       <c r="M6">
-        <v>1.043088831972864</v>
+        <v>1.042841964753876</v>
       </c>
       <c r="N6">
-        <v>1.011567799640901</v>
+        <v>1.01328678626408</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042674307535502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042478929244399</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020999286931185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002998289752111</v>
+        <v>1.003032159977534</v>
       </c>
       <c r="D7">
-        <v>1.024291293572426</v>
+        <v>1.023923306416669</v>
       </c>
       <c r="E7">
-        <v>1.008566253951987</v>
+        <v>1.008598865613438</v>
       </c>
       <c r="F7">
-        <v>1.032866761257997</v>
+        <v>1.03265958869569</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045245741858501</v>
+        <v>1.045097470340912</v>
       </c>
       <c r="J7">
-        <v>1.022319545964037</v>
+        <v>1.022352557122895</v>
       </c>
       <c r="K7">
-        <v>1.034102217928954</v>
+        <v>1.033738416401605</v>
       </c>
       <c r="L7">
-        <v>1.018559412555597</v>
+        <v>1.018591639006403</v>
       </c>
       <c r="M7">
-        <v>1.042581184322288</v>
+        <v>1.042376319862234</v>
       </c>
       <c r="N7">
-        <v>1.011383112297672</v>
+        <v>1.013178523705959</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042272539552874</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042110403447813</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020918238313878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9983423132804432</v>
+        <v>0.9985688355766794</v>
       </c>
       <c r="D8">
-        <v>1.021140771551682</v>
+        <v>1.021014487053084</v>
       </c>
       <c r="E8">
-        <v>1.004931043349676</v>
+        <v>1.00513151200881</v>
       </c>
       <c r="F8">
-        <v>1.029629013766218</v>
+        <v>1.029593651120463</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044465864546641</v>
+        <v>1.044422665213805</v>
       </c>
       <c r="J8">
-        <v>1.019998711025569</v>
+        <v>1.020218634479654</v>
       </c>
       <c r="K8">
-        <v>1.032041794150537</v>
+        <v>1.031917133058665</v>
       </c>
       <c r="L8">
-        <v>1.016044632255011</v>
+        <v>1.016242419484337</v>
       </c>
       <c r="M8">
-        <v>1.040422057789798</v>
+        <v>1.040387140383163</v>
       </c>
       <c r="N8">
-        <v>1.010596606196243</v>
+        <v>1.012656091465023</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.040563737839596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040536103055302</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020564014206708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9898275938834693</v>
+        <v>0.9903895433230744</v>
       </c>
       <c r="D9">
-        <v>1.015401424793406</v>
+        <v>1.015704251340992</v>
       </c>
       <c r="E9">
-        <v>0.998331466047546</v>
+        <v>0.9988225459341027</v>
       </c>
       <c r="F9">
-        <v>1.0237519099868</v>
+        <v>1.024020679094575</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042965171052392</v>
+        <v>1.043107523890423</v>
       </c>
       <c r="J9">
-        <v>1.015744751630635</v>
+        <v>1.016286296496737</v>
       </c>
       <c r="K9">
-        <v>1.028249470707391</v>
+        <v>1.028547574621654</v>
       </c>
       <c r="L9">
-        <v>1.011451672181719</v>
+        <v>1.011934755439007</v>
       </c>
       <c r="M9">
-        <v>1.036471034341116</v>
+        <v>1.036735698516476</v>
       </c>
       <c r="N9">
-        <v>1.009153425154855</v>
+        <v>1.011604761151589</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.037436761157879</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037646225971859</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019887431438323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9839691891498988</v>
+        <v>0.984798628042488</v>
       </c>
       <c r="D10">
-        <v>1.011493569715341</v>
+        <v>1.012116216248855</v>
       </c>
       <c r="E10">
-        <v>0.9938310273609231</v>
+        <v>0.9945536271799397</v>
       </c>
       <c r="F10">
-        <v>1.019815843747494</v>
+        <v>1.020314886488068</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041904989186249</v>
+        <v>1.042185810273225</v>
       </c>
       <c r="J10">
-        <v>1.012833598088259</v>
+        <v>1.013628625312698</v>
       </c>
       <c r="K10">
-        <v>1.025658359438381</v>
+        <v>1.026270101181488</v>
       </c>
       <c r="L10">
-        <v>1.008312565035283</v>
+        <v>1.009021918819064</v>
       </c>
       <c r="M10">
-        <v>1.033836302733653</v>
+        <v>1.034326787424044</v>
       </c>
       <c r="N10">
-        <v>1.008168157199201</v>
+        <v>1.011006741447905</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.035403166814873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035791330855743</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019424160234951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9817316888243836</v>
+        <v>0.9826931787821919</v>
       </c>
       <c r="D11">
-        <v>1.010188679837507</v>
+        <v>1.010943873419013</v>
       </c>
       <c r="E11">
-        <v>0.9921660831239855</v>
+        <v>0.9930028308419718</v>
       </c>
       <c r="F11">
-        <v>1.018915995910999</v>
+        <v>1.019513945036495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041649181485438</v>
+        <v>1.04198587576959</v>
       </c>
       <c r="J11">
-        <v>1.011884706229645</v>
+        <v>1.012804096528306</v>
       </c>
       <c r="K11">
-        <v>1.024920976901091</v>
+        <v>1.025662313886432</v>
       </c>
       <c r="L11">
-        <v>1.007237263413243</v>
+        <v>1.008057921017585</v>
       </c>
       <c r="M11">
-        <v>1.033489788508804</v>
+        <v>1.034077006792492</v>
       </c>
       <c r="N11">
-        <v>1.007875480122183</v>
+        <v>1.011033911432475</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035566618014669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03603110072503</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019336216135756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9810236232662005</v>
+        <v>0.982023606012451</v>
       </c>
       <c r="D12">
-        <v>1.009852619423387</v>
+        <v>1.010642487897424</v>
       </c>
       <c r="E12">
-        <v>0.9916612106839862</v>
+        <v>0.992530551194762</v>
       </c>
       <c r="F12">
-        <v>1.018880829785487</v>
+        <v>1.019505047074274</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041633759018302</v>
+        <v>1.041983624235822</v>
       </c>
       <c r="J12">
-        <v>1.011653391152113</v>
+        <v>1.012608737039465</v>
       </c>
       <c r="K12">
-        <v>1.02479346220894</v>
+        <v>1.025568595997828</v>
       </c>
       <c r="L12">
-        <v>1.006949931671919</v>
+        <v>1.007802266948937</v>
       </c>
       <c r="M12">
-        <v>1.033655027353119</v>
+        <v>1.034267864629871</v>
       </c>
       <c r="N12">
-        <v>1.007821354031643</v>
+        <v>1.01110027150603</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036024644533351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03650922660249</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019343580703435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814470146644403</v>
+        <v>0.9824049514977683</v>
       </c>
       <c r="D13">
-        <v>1.010242391340497</v>
+        <v>1.010985509228948</v>
       </c>
       <c r="E13">
-        <v>0.9920142906775401</v>
+        <v>0.9928459453855115</v>
       </c>
       <c r="F13">
-        <v>1.019521443548508</v>
+        <v>1.020110962644727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041808245682792</v>
+        <v>1.042135717392998</v>
       </c>
       <c r="J13">
-        <v>1.011962288682676</v>
+        <v>1.012877672652658</v>
       </c>
       <c r="K13">
-        <v>1.025132575267137</v>
+        <v>1.025861890101546</v>
       </c>
       <c r="L13">
-        <v>1.007251546113528</v>
+        <v>1.00806700189169</v>
       </c>
       <c r="M13">
-        <v>1.034241150774923</v>
+        <v>1.034819975381034</v>
       </c>
       <c r="N13">
-        <v>1.007948204095281</v>
+        <v>1.011165643840233</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.036765407708642</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037222979781722</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019425000386578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9822549169472631</v>
+        <v>0.9831476835252708</v>
       </c>
       <c r="D14">
-        <v>1.010842416005008</v>
+        <v>1.011516639903745</v>
       </c>
       <c r="E14">
-        <v>0.99264917082555</v>
+        <v>0.9934233623451303</v>
       </c>
       <c r="F14">
-        <v>1.020274019961649</v>
+        <v>1.020812243450737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042015188725509</v>
+        <v>1.042311362421568</v>
       </c>
       <c r="J14">
-        <v>1.012421748856189</v>
+        <v>1.013275424395346</v>
       </c>
       <c r="K14">
-        <v>1.025579421089508</v>
+        <v>1.026241277428548</v>
       </c>
       <c r="L14">
-        <v>1.007728210137274</v>
+        <v>1.008487512628681</v>
       </c>
       <c r="M14">
-        <v>1.034839946267997</v>
+        <v>1.035368530817558</v>
       </c>
       <c r="N14">
-        <v>1.008118413609665</v>
+        <v>1.011211752251026</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.037412393349974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.037830193083735</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019515191240371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.982699860152668</v>
+        <v>0.9835597586105312</v>
       </c>
       <c r="D15">
-        <v>1.011151260580633</v>
+        <v>1.011791196479495</v>
       </c>
       <c r="E15">
-        <v>0.9929927987225928</v>
+        <v>0.9937382261442099</v>
       </c>
       <c r="F15">
-        <v>1.020617078805295</v>
+        <v>1.021129778267105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042109665756954</v>
+        <v>1.04239064742174</v>
       </c>
       <c r="J15">
-        <v>1.012654919999685</v>
+        <v>1.013477495754575</v>
       </c>
       <c r="K15">
-        <v>1.025795123787091</v>
+        <v>1.026423410155288</v>
       </c>
       <c r="L15">
-        <v>1.007975411508839</v>
+        <v>1.00870661405409</v>
       </c>
       <c r="M15">
-        <v>1.035090558124741</v>
+        <v>1.035594146063032</v>
       </c>
       <c r="N15">
-        <v>1.008200482752498</v>
+        <v>1.011226581440177</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037648074121061</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038046105717394</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019554925491349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850944336693397</v>
+        <v>0.9857983881495012</v>
       </c>
       <c r="D16">
-        <v>1.012732511877431</v>
+        <v>1.013208789167238</v>
       </c>
       <c r="E16">
-        <v>0.9948202566358043</v>
+        <v>0.9954302045322376</v>
       </c>
       <c r="F16">
-        <v>1.022189527062465</v>
+        <v>1.022580945699091</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042540673804223</v>
+        <v>1.042750822925346</v>
       </c>
       <c r="J16">
-        <v>1.013833454806347</v>
+        <v>1.014508386765559</v>
       </c>
       <c r="K16">
-        <v>1.026839606333465</v>
+        <v>1.027307591494494</v>
       </c>
       <c r="L16">
-        <v>1.009246712175512</v>
+        <v>1.009845539191345</v>
       </c>
       <c r="M16">
-        <v>1.036133839920231</v>
+        <v>1.036518604924371</v>
       </c>
       <c r="N16">
-        <v>1.008594831362465</v>
+        <v>1.011293854190271</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.038433898985597</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.038738022619541</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019731385754542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9865098585443758</v>
+        <v>0.9871369618089397</v>
       </c>
       <c r="D17">
-        <v>1.013631963533439</v>
+        <v>1.014025045454992</v>
       </c>
       <c r="E17">
-        <v>0.9958924394382582</v>
+        <v>0.9964360673292076</v>
       </c>
       <c r="F17">
-        <v>1.022997124157751</v>
+        <v>1.023327512599727</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042759985037532</v>
+        <v>1.042934839582792</v>
       </c>
       <c r="J17">
-        <v>1.014496499000849</v>
+        <v>1.015098582445923</v>
       </c>
       <c r="K17">
-        <v>1.027405123508648</v>
+        <v>1.027791553774962</v>
       </c>
       <c r="L17">
-        <v>1.009972874428203</v>
+        <v>1.010506875094672</v>
       </c>
       <c r="M17">
-        <v>1.03661359759022</v>
+        <v>1.036938525770334</v>
       </c>
       <c r="N17">
-        <v>1.008807920395396</v>
+        <v>1.011350340409469</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.038683846285271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.038940699704423</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.01982002331675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9872118298719986</v>
+        <v>0.9878129427356724</v>
       </c>
       <c r="D18">
-        <v>1.014013855183551</v>
+        <v>1.014378580100671</v>
       </c>
       <c r="E18">
-        <v>0.9964078204396876</v>
+        <v>0.9969295977873263</v>
       </c>
       <c r="F18">
-        <v>1.023181026145304</v>
+        <v>1.02349085096593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042810607313776</v>
+        <v>1.0429744744628</v>
       </c>
       <c r="J18">
-        <v>1.014766818957683</v>
+        <v>1.015344402423366</v>
       </c>
       <c r="K18">
-        <v>1.027594997543447</v>
+        <v>1.027953651799944</v>
       </c>
       <c r="L18">
-        <v>1.010288849009389</v>
+        <v>1.010801541682583</v>
       </c>
       <c r="M18">
-        <v>1.036611272008577</v>
+        <v>1.036916057608079</v>
       </c>
       <c r="N18">
-        <v>1.008880898489478</v>
+        <v>1.011362199988236</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.038443831402816</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.038684812669112</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019835046303834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872599305296911</v>
+        <v>0.9878754628104999</v>
       </c>
       <c r="D19">
-        <v>1.013918032076416</v>
+        <v>1.01430029144765</v>
       </c>
       <c r="E19">
-        <v>0.9964119924748103</v>
+        <v>0.9969471722698346</v>
       </c>
       <c r="F19">
-        <v>1.022787190041587</v>
+        <v>1.023109933821353</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042706558523521</v>
+        <v>1.042879729223491</v>
       </c>
       <c r="J19">
-        <v>1.014675536717904</v>
+        <v>1.015267120372631</v>
       </c>
       <c r="K19">
-        <v>1.02743749144086</v>
+        <v>1.027813420921436</v>
       </c>
       <c r="L19">
-        <v>1.010228070651772</v>
+        <v>1.010753982765363</v>
       </c>
       <c r="M19">
-        <v>1.036161348522075</v>
+        <v>1.036478865873059</v>
       </c>
       <c r="N19">
-        <v>1.008826887270618</v>
+        <v>1.011313241875286</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037761779522208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.038012909690522</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019781209684503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9854869446419109</v>
+        <v>0.9862256468281015</v>
       </c>
       <c r="D20">
-        <v>1.012505599939773</v>
+        <v>1.013029712228438</v>
       </c>
       <c r="E20">
-        <v>0.994994546910244</v>
+        <v>0.9956381005152908</v>
       </c>
       <c r="F20">
-        <v>1.020836787938167</v>
+        <v>1.021263221389446</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042183960978666</v>
+        <v>1.042421633435705</v>
       </c>
       <c r="J20">
-        <v>1.013589015642792</v>
+        <v>1.014298070995125</v>
       </c>
       <c r="K20">
-        <v>1.026332060842759</v>
+        <v>1.026847254854654</v>
       </c>
       <c r="L20">
-        <v>1.009125985922823</v>
+        <v>1.009758084757172</v>
       </c>
       <c r="M20">
-        <v>1.034522882330403</v>
+        <v>1.034942210455319</v>
       </c>
       <c r="N20">
-        <v>1.008424015314848</v>
+        <v>1.011088604240571</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.035935935845215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.036267791425759</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019541260473598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9810272075882133</v>
+        <v>0.9820784240758018</v>
       </c>
       <c r="D21">
-        <v>1.009502455564007</v>
+        <v>1.010352119896588</v>
       </c>
       <c r="E21">
-        <v>0.9915728238979747</v>
+        <v>0.9924897621717077</v>
       </c>
       <c r="F21">
-        <v>1.017736490940746</v>
+        <v>1.018405685945693</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041330243112687</v>
+        <v>1.041711860272622</v>
       </c>
       <c r="J21">
-        <v>1.011340162987265</v>
+        <v>1.012345030358452</v>
       </c>
       <c r="K21">
-        <v>1.02430600995339</v>
+        <v>1.025139986952783</v>
       </c>
       <c r="L21">
-        <v>1.006715630105297</v>
+        <v>1.007614829047095</v>
       </c>
       <c r="M21">
-        <v>1.032389454912761</v>
+        <v>1.033046550270606</v>
       </c>
       <c r="N21">
-        <v>1.00765756472936</v>
+        <v>1.010977009356854</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034206443548402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.034726494868663</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019190130453417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9781924069355321</v>
+        <v>0.9794411969036178</v>
       </c>
       <c r="D22">
-        <v>1.00760988784592</v>
+        <v>1.008665628443487</v>
       </c>
       <c r="E22">
-        <v>0.989408692985989</v>
+        <v>0.9904983387136939</v>
       </c>
       <c r="F22">
-        <v>1.015811431683141</v>
+        <v>1.016634521151516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040788311519575</v>
+        <v>1.041261047896442</v>
       </c>
       <c r="J22">
-        <v>1.009920520591321</v>
+        <v>1.011111029300962</v>
       </c>
       <c r="K22">
-        <v>1.023032083877634</v>
+        <v>1.024067350246324</v>
       </c>
       <c r="L22">
-        <v>1.005192926657163</v>
+        <v>1.006260404943767</v>
       </c>
       <c r="M22">
-        <v>1.031076036407006</v>
+        <v>1.031883493902704</v>
       </c>
       <c r="N22">
-        <v>1.007175181573997</v>
+        <v>1.010901719947431</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033166950913973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.033806005681905</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.0189693302523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9797003285065468</v>
+        <v>0.980831767612265</v>
       </c>
       <c r="D23">
-        <v>1.008616128862675</v>
+        <v>1.009553063983172</v>
       </c>
       <c r="E23">
-        <v>0.990559089241386</v>
+        <v>0.991545855371979</v>
       </c>
       <c r="F23">
-        <v>1.01683466715137</v>
+        <v>1.017568301051431</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04107743257058</v>
+        <v>1.041497356521035</v>
       </c>
       <c r="J23">
-        <v>1.010675700026069</v>
+        <v>1.011755891103617</v>
       </c>
       <c r="K23">
-        <v>1.023709906207056</v>
+        <v>1.024629134918271</v>
       </c>
       <c r="L23">
-        <v>1.00600271288729</v>
+        <v>1.006969928473104</v>
       </c>
       <c r="M23">
-        <v>1.031774578909297</v>
+        <v>1.03249463540373</v>
       </c>
       <c r="N23">
-        <v>1.007431798482655</v>
+        <v>1.010899553563513</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.033719805951482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.03428968758519</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019084316001254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9855252092983584</v>
+        <v>0.9862638366346085</v>
       </c>
       <c r="D24">
-        <v>1.012513131368079</v>
+        <v>1.013037492070009</v>
       </c>
       <c r="E24">
-        <v>0.9950195512569044</v>
+        <v>0.9956631356762388</v>
       </c>
       <c r="F24">
-        <v>1.020803626432122</v>
+        <v>1.021230247245469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042175405824309</v>
+        <v>1.042413392114615</v>
       </c>
       <c r="J24">
-        <v>1.013592069658157</v>
+        <v>1.014301098218487</v>
       </c>
       <c r="K24">
-        <v>1.026324008941028</v>
+        <v>1.026839458775165</v>
       </c>
       <c r="L24">
-        <v>1.009134697338457</v>
+        <v>1.009766841976952</v>
       </c>
       <c r="M24">
-        <v>1.03447499783802</v>
+        <v>1.034894518720511</v>
       </c>
       <c r="N24">
-        <v>1.008422509330526</v>
+        <v>1.011083620496326</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.035857023590909</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.036189048320531</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019536282087887</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9920674129066535</v>
+        <v>0.9925310101232494</v>
       </c>
       <c r="D25">
-        <v>1.016908257952522</v>
+        <v>1.017090985328948</v>
       </c>
       <c r="E25">
-        <v>1.000061611522803</v>
+        <v>1.000467391379873</v>
       </c>
       <c r="F25">
-        <v>1.025292435260797</v>
+        <v>1.025475175251708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043368407024009</v>
+        <v>1.043458669538654</v>
       </c>
       <c r="J25">
-        <v>1.016864721450277</v>
+        <v>1.017312376818809</v>
       </c>
       <c r="K25">
-        <v>1.02924964511388</v>
+        <v>1.029429655189942</v>
       </c>
       <c r="L25">
-        <v>1.012658971127</v>
+        <v>1.013058456029568</v>
       </c>
       <c r="M25">
-        <v>1.037510408257262</v>
+        <v>1.037690486839515</v>
       </c>
       <c r="N25">
-        <v>1.009533549900604</v>
+        <v>1.011848746639729</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.038259358965781</v>
+        <v>1.038401879520359</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020066164986973</v>
       </c>
     </row>
   </sheetData>
